--- a/biology/Botanique/Rhizogranulochloridaceae/Rhizogranulochloridaceae.xlsx
+++ b/biology/Botanique/Rhizogranulochloridaceae/Rhizogranulochloridaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Rhizogranulochloridaceae sont une famille d'algues de l'embranchement des Ochrophyta  de la classe des Xanthophyceae et de l’ordre des Rhizochloridales.
-Le genre Garciamyxa a été trouvé dans les eaux douces à la source d'un ruisseau de montagne, mélangé avec des filaments de Spirogyra et de Tribonema (algue Tribonemataceae) du parc d'état de Sao Paulo, Brésil[1].
+Le genre Garciamyxa a été trouvé dans les eaux douces à la source d'un ruisseau de montagne, mélangé avec des filaments de Spirogyra et de Tribonema (algue Tribonemataceae) du parc d'état de Sao Paulo, Brésil.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient de l’hypothétique genre type Rhizogranulochloris qui n'a jamais été décrit. Le nom est construit à partir du genre Rhizochloris (genre type de la famille des Rhizochloridaceae) par insertion du radical -granulo- entre le préfixe rhizo- (du grec ρίζα / riza, racine), et le suffixe -chloris (du grec χλωρηίς / chloriis, jaune verdâtre), littéralement « Rhizochloris granuleux ». De fait le genre Garciamyxa et Garciamyxa rhizaspiformis, unique espèce décrite, présente dans sa cellule « des granules vert pâle ou jaune-vert »[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient de l’hypothétique genre type Rhizogranulochloris qui n'a jamais été décrit. Le nom est construit à partir du genre Rhizochloris (genre type de la famille des Rhizochloridaceae) par insertion du radical -granulo- entre le préfixe rhizo- (du grec ρίζα / riza, racine), et le suffixe -chloris (du grec χλωρηίς / chloriis, jaune verdâtre), littéralement « Rhizochloris granuleux ». De fait le genre Garciamyxa et Garciamyxa rhizaspiformis, unique espèce décrite, présente dans sa cellule « des granules vert pâle ou jaune-vert ». 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Rhizogranulochloridaceae donné par Borís Skvortsov en 1972, n'est que descriptif et donc invalide[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Rhizogranulochloridaceae donné par Borís Skvortsov en 1972, n'est que descriptif et donc invalide.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Garciamyxa se présente sous la forme de cellules subovoïdes solitaires de 20 à 26 µm de long peu mobiles, avec des granules vert pâle ou jaune-vert, quelques rares gouttelettes d'huile et des vacuoles contractiles bien visibles[1]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Garciamyxa se présente sous la forme de cellules subovoïdes solitaires de 20 à 26 µm de long peu mobiles, avec des granules vert pâle ou jaune-vert, quelques rares gouttelettes d'huile et des vacuoles contractiles bien visibles. 
 </t>
         </is>
       </c>
@@ -605,11 +623,13 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (15 avril 2022)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (15 avril 2022) :
 Garciamyxa Skvortsov, 1972
-Selon World Register of Marine Species                               (15 avril 2022)[3] :
+Selon World Register of Marine Species                               (15 avril 2022) :
 Garciamyxa Skvortzov, 1972
 Herreramyxa Skvortzov, 1972</t>
         </is>
